--- a/dados/02_papeis_personas.xlsx
+++ b/dados/02_papeis_personas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b755341190342fa/projetos/finops-automatic/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_E975E127C048D02EE36D747744B8B6FFA83DB28F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6EDC18-F48E-4999-84E4-56DC237F5B4A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_E975E127C048D02EE36D747744B8B6FFA83DB28F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C42F1E-BB46-466A-93F8-0A9856796472}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Persona</t>
   </si>
@@ -58,7 +58,13 @@
     <t>Arimatéia Júnior</t>
   </si>
   <si>
-    <t>Yuri</t>
+    <t>Ana Valéria</t>
+  </si>
+  <si>
+    <t>Gustavo Rodrigues</t>
+  </si>
+  <si>
+    <t>Janaina Rodrigues</t>
   </si>
 </sst>
 </file>
@@ -569,13 +575,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -628,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
